--- a/ECAD/Altium/SoM BaseBoard Prototype V0/Project Outputs for SoM BaseBoard Prototype V0/BOM/Copy of Bill of Materials-SoM BaseBoard Prototype V0.xlsx
+++ b/ECAD/Altium/SoM BaseBoard Prototype V0/Project Outputs for SoM BaseBoard Prototype V0/BOM/Copy of Bill of Materials-SoM BaseBoard Prototype V0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keepi\Downloads\Limbotics\transradial_development\ECAD\Altium\SoM BaseBoard Prototype V0\Project Outputs for SoM BaseBoard Prototype V0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F519121D-2FDE-46BF-8026-D888386FF49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CAD8B2-676E-4ABE-AF93-A00C7E65DD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2340" windowWidth="20910" windowHeight="11835" xr2:uid="{238DC2ED-8F02-4574-8402-3F0B407F3263}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{EA60099D-F54E-4EF5-B3BE-0767AC6458E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Bill of Materials-SoM B" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
-  <si>
-    <t>Line #</t>
-  </si>
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="194">
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>Description</t>
@@ -51,162 +48,210 @@
     <t>Designator</t>
   </si>
   <si>
-    <t>Revision ID</t>
-  </si>
-  <si>
-    <t>Revision State</t>
-  </si>
-  <si>
-    <t>Revision Status</t>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>LibRef</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Manufacturer 1</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number 1</t>
-  </si>
-  <si>
-    <t>Manufacturer Lifecycle 1</t>
-  </si>
-  <si>
-    <t>Supplier 1</t>
-  </si>
-  <si>
-    <t>Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t>Supplier Unit Price 1</t>
-  </si>
-  <si>
-    <t>Supplier Subtotal 1</t>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C0603X104K5RACTU CAP CER 0.1UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>C1, C3, C6, C17, C18, C22, C25</t>
+  </si>
+  <si>
+    <t>FP-C0603-CJ-MFG</t>
+  </si>
+  <si>
+    <t>CMP-2006-03300-2</t>
+  </si>
+  <si>
+    <t>C0603X104K5RACTU</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>GRM21BR60J226ME39L Chip Multilayer Ceramic Capacitors for General Purpose, 0805, 22uF, X5R, 15%, 20%, 6.3V</t>
+  </si>
+  <si>
+    <t>C2, C7, C8</t>
+  </si>
+  <si>
+    <t>FP-GRM21B-0_15-MFG</t>
+  </si>
+  <si>
+    <t>CMP-2007-03385-2</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C0805C105K4PACTU</t>
+  </si>
+  <si>
+    <t>C4, C19, C24</t>
+  </si>
+  <si>
+    <t>CAPC2013X145X50LL20T25</t>
+  </si>
+  <si>
+    <t>CMP-1036-04746-2</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>GRM31CR60J476ME19L Chip Multilayer Ceramic Capacitors for General Purpose, 1206, 47uF, X5R, 15%, 20%, 6.3V</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>FP-GRM31C-0_2-e0_3_0_8-IPC_C</t>
+  </si>
+  <si>
+    <t>CMP-2000-06344-2</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C2012X7R1A106K125AC Multilayer Ceramic Chip Capacitor, 10 uF, +/- 10%, 10 V, -55 to 125 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>C9, C10, C12, C14, C15, C16, C23</t>
+  </si>
+  <si>
+    <t>CAPC2013X145X20ML20</t>
+  </si>
+  <si>
+    <t>CMP-2000-05452-1</t>
+  </si>
+  <si>
+    <t>100uF * n</t>
+  </si>
+  <si>
+    <t>ECA-1JHG471 Aluminum Electrolytic Capacitor (Radial Lead Type), 470 uF, 63 V, -55 to 105 degC, 2-Pin THD, RoHS, Bulk</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CAPPR65-500-2000X1250X2200</t>
+  </si>
+  <si>
+    <t>CMP-1665-00014-4</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>EEEFK1C101P Aluminum Electrolytic Capacitor, 100 uF, 20%, 16 V, -55 to 105 degC, 2-Pin SMD, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>PNSC-EEEFK1C101P_L</t>
+  </si>
+  <si>
+    <t>CMP-2000-06203-1</t>
+  </si>
+  <si>
+    <t>1nF 0603</t>
+  </si>
+  <si>
+    <t>06035C102KAT2A</t>
+  </si>
+  <si>
+    <t>C20, C21, C26, C27</t>
+  </si>
+  <si>
+    <t>CAPC1608X90X35LL15T15</t>
+  </si>
+  <si>
+    <t>CMP-2006-04378-1</t>
+  </si>
+  <si>
+    <t>SMBJ5.0A-TR</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5V 13.4V SMB</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>FP-SMB-MFG</t>
+  </si>
+  <si>
+    <t>CMP-12225-000019-1</t>
+  </si>
+  <si>
+    <t>210-P92-20GBEG</t>
+  </si>
+  <si>
+    <t>SOCKET 2X20 100-MIL STRAIGHT SMT</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>2X20</t>
+  </si>
+  <si>
+    <t>CONN_HEADER_20x2_SMT</t>
+  </si>
+  <si>
+    <t>USB4085-GF-A</t>
+  </si>
+  <si>
+    <t>CONN RCPT USB2.0 TYPEC 16POS</t>
+  </si>
+  <si>
+    <t>J2, J3</t>
+  </si>
+  <si>
+    <t>FP-USB4085-GF-A-MFG</t>
+  </si>
+  <si>
+    <t>CMP-196119-000001-1</t>
+  </si>
+  <si>
+    <t>87520-0010BLF</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C0603X104K5RACTU CAP CER 0.1UF 50V X7R 0603</t>
-  </si>
-  <si>
-    <t>C1, C3, C6, C17, C18, C22, C25</t>
-  </si>
-  <si>
-    <t>Unknown server</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>GRM21BR60J226ME39L Chip Multilayer Ceramic Capacitors for General Purpose, 0805, 22uF, X5R, 15%, 20%, 6.3V</t>
-  </si>
-  <si>
-    <t>C2, C7, C8</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C0805C105K4PACTU</t>
-  </si>
-  <si>
-    <t>C4, C19, C24</t>
-  </si>
-  <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>GRM31CR60J476ME19L Chip Multilayer Ceramic Capacitors for General Purpose, 1206, 47uF, X5R, 15%, 20%, 6.3V</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C2012X7R1A106K125AC Multilayer Ceramic Chip Capacitor, 10 uF, +/- 10%, 10 V, -55 to 125 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>C9, C10, C12, C14, C15, C16, C23</t>
-  </si>
-  <si>
-    <t>100uF * n</t>
-  </si>
-  <si>
-    <t>ECA-1JHG471 Aluminum Electrolytic Capacitor (Radial Lead Type), 470 uF, 63 V, -55 to 105 degC, 2-Pin THD, RoHS, Bulk</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>EEEFK1C101P Aluminum Electrolytic Capacitor, 100 uF, 20%, 16 V, -55 to 105 degC, 2-Pin SMD, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>1nF 0603</t>
-  </si>
-  <si>
-    <t>06035C102KAT2A</t>
-  </si>
-  <si>
-    <t>C20, C21, C26, C27</t>
-  </si>
-  <si>
-    <t>SMBJ5.0A-TR</t>
-  </si>
-  <si>
-    <t>TVS DIODE 5V 13.4V SMB</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>210-P92-20GBEG</t>
-  </si>
-  <si>
-    <t>SOCKET 2X20 100-MIL STRAIGHT SMT</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Not managed</t>
-  </si>
-  <si>
-    <t>Samtec</t>
-  </si>
-  <si>
-    <t>USB4085-GF-A</t>
-  </si>
-  <si>
-    <t>CONN RCPT USB2.0 TYPEC 16POS</t>
-  </si>
-  <si>
-    <t>J2, J3</t>
-  </si>
-  <si>
-    <t>87520-0010BLF</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
+    <t>875200010BLF</t>
+  </si>
+  <si>
     <t>0.1 1x3 Header</t>
   </si>
   <si>
     <t>J6, J7, J10, J11</t>
   </si>
   <si>
+    <t>1X03</t>
+  </si>
+  <si>
+    <t>CONN_03</t>
+  </si>
+  <si>
     <t>SJ1-3523N</t>
   </si>
   <si>
@@ -216,6 +261,9 @@
     <t>J8, J12</t>
   </si>
   <si>
+    <t>SJ13523N</t>
+  </si>
+  <si>
     <t>DF40HC(3.0)-100DS-0.4V(51)</t>
   </si>
   <si>
@@ -225,16 +273,10 @@
     <t>J1310, J1311, J1312</t>
   </si>
   <si>
-    <t>Hirose</t>
-  </si>
-  <si>
-    <t>DF40C-100DP-0.4V(51)</t>
-  </si>
-  <si>
-    <t>Volume Production</t>
-  </si>
-  <si>
-    <t>Digi-Key</t>
+    <t>DF40HC30100DS04V51</t>
+  </si>
+  <si>
+    <t>CONN_HIROSE-DF40C-100DP-0.4V(51)</t>
   </si>
   <si>
     <t>H11614CT-ND</t>
@@ -249,6 +291,9 @@
     <t>L1</t>
   </si>
   <si>
+    <t>NRH2412T2R2MNGH</t>
+  </si>
+  <si>
     <t>redLED</t>
   </si>
   <si>
@@ -258,6 +303,15 @@
     <t>LED1</t>
   </si>
   <si>
+    <t>0805_A</t>
+  </si>
+  <si>
+    <t>CMP-1426-00010-1</t>
+  </si>
+  <si>
+    <t>150080SS75000</t>
+  </si>
+  <si>
     <t>greenLED</t>
   </si>
   <si>
@@ -267,12 +321,21 @@
     <t>LED2</t>
   </si>
   <si>
+    <t>CMP-1426-00007-1</t>
+  </si>
+  <si>
+    <t>150080GS75000</t>
+  </si>
+  <si>
     <t>Servo Motor</t>
   </si>
   <si>
     <t>M1, M2, M3, M4, M5, M6</t>
   </si>
   <si>
+    <t>SERVO</t>
+  </si>
+  <si>
     <t>B2B-PH-SM4-TB(LF)(SN)</t>
   </si>
   <si>
@@ -282,6 +345,12 @@
     <t>P1</t>
   </si>
   <si>
+    <t>JST-B2B-PH-SM4-TB-2_V</t>
+  </si>
+  <si>
+    <t>CMP-2000-05163-1</t>
+  </si>
+  <si>
     <t>5-146280-2</t>
   </si>
   <si>
@@ -291,6 +360,12 @@
     <t>P2</t>
   </si>
   <si>
+    <t>TECO-5-146280-2_V</t>
+  </si>
+  <si>
+    <t>CMP-2000-07492-1</t>
+  </si>
+  <si>
     <t>PMF250XNEX</t>
   </si>
   <si>
@@ -300,13 +375,22 @@
     <t>Q1, Q2</t>
   </si>
   <si>
-    <t>10kR, 10kR DNP, 10kR_DNP, DNP 10kR</t>
+    <t>SOT65P210X110-3N</t>
+  </si>
+  <si>
+    <t>10kR</t>
   </si>
   <si>
     <t>RC0805FR-0710KL Chip Resistor, 10 KOhm, +/- 1%, 0.125 W, -55 to 155 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>R1, R9, R12, R13, R15, R16, R21, R22, R27, R28, R31, R32, R33, R34, R35, R36, R37, R38</t>
+    <t>R1, R9, R12, R13, R15, R16, R22</t>
+  </si>
+  <si>
+    <t>RESC2013X60X35NL10T20</t>
+  </si>
+  <si>
+    <t>CMP-1659-00013-4</t>
   </si>
   <si>
     <t>5.1kR</t>
@@ -318,7 +402,10 @@
     <t>R2, R4, R6, R7</t>
   </si>
   <si>
-    <t>10kR</t>
+    <t>FP-CRCW0805-e3-MFG</t>
+  </si>
+  <si>
+    <t>CMP-2001-04024-2</t>
   </si>
   <si>
     <t>RC0805FR-071KL Chip Resistor, 1 KOhm, +/- 1%, 125 mW, -55 to 155 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
@@ -327,13 +414,28 @@
     <t>R3, R8</t>
   </si>
   <si>
-    <t>DNP 0R, 0R</t>
+    <t>RESC2013X60X35ML10T20</t>
+  </si>
+  <si>
+    <t>CMP-2100-03671-1</t>
+  </si>
+  <si>
+    <t>DNP 0R</t>
   </si>
   <si>
     <t>RC1206JR-070RL RES SMD 0 OHM JUMPER 1/4W 1206</t>
   </si>
   <si>
-    <t>R5, R11, R17, R18, R25</t>
+    <t>R5, R11, R18</t>
+  </si>
+  <si>
+    <t>FP-RC1206-MFG</t>
+  </si>
+  <si>
+    <t>CMP-2100-03681-2</t>
+  </si>
+  <si>
+    <t>RC1206JR-070RL</t>
   </si>
   <si>
     <t>20kR</t>
@@ -345,13 +447,52 @@
     <t>R10</t>
   </si>
   <si>
-    <t>100kR, 100kR DNP</t>
+    <t>CMP-2001-03667-2</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>R17, R25</t>
+  </si>
+  <si>
+    <t>100kR</t>
   </si>
   <si>
     <t>RC0603FR-07100KL RES SMD 100K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R19, R20, R23, R24, R26</t>
+    <t>R19, R20, R26</t>
+  </si>
+  <si>
+    <t>FP-RC0603-0_55-MFG</t>
+  </si>
+  <si>
+    <t>CMP-2100-03662-2</t>
+  </si>
+  <si>
+    <t>10kR DNP</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>100kR DNP</t>
+  </si>
+  <si>
+    <t>R23, R24</t>
+  </si>
+  <si>
+    <t>10kR_DNP</t>
+  </si>
+  <si>
+    <t>R27, R28</t>
+  </si>
+  <si>
+    <t>DNP 10kR</t>
+  </si>
+  <si>
+    <t>R31, R32, R33, R34, R35, R36, R37, R38</t>
   </si>
   <si>
     <t>KTS1681AEUZ-TR</t>
@@ -363,12 +504,18 @@
     <t>S1</t>
   </si>
   <si>
+    <t>KTS1681AEUZTR</t>
+  </si>
+  <si>
     <t>TestPad</t>
   </si>
   <si>
     <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20, TP21, TP22, TP23, TP24, TP25, TP26, TP27, TP28, TP29, TP30, TP31, TP32, TP33, TP34, TP35, TP36, TP37</t>
   </si>
   <si>
+    <t>TestPad50mil</t>
+  </si>
+  <si>
     <t>LM3671MF-3.3/NOPB</t>
   </si>
   <si>
@@ -378,6 +525,12 @@
     <t>U1</t>
   </si>
   <si>
+    <t>FP-DBV0005A-IPC_C</t>
+  </si>
+  <si>
+    <t>CMP-0063-01132-4</t>
+  </si>
+  <si>
     <t>AP22653W6-7</t>
   </si>
   <si>
@@ -387,6 +540,12 @@
     <t>U2</t>
   </si>
   <si>
+    <t>FP-SOT26-MFG</t>
+  </si>
+  <si>
+    <t>CMP-12749-000002-1</t>
+  </si>
+  <si>
     <t>ADS1015IDGST</t>
   </si>
   <si>
@@ -396,6 +555,12 @@
     <t>U3</t>
   </si>
   <si>
+    <t>FP-DGS0010A-MFG</t>
+  </si>
+  <si>
+    <t>CMP-0003-00377-3</t>
+  </si>
+  <si>
     <t>PCA9685PW,112</t>
   </si>
   <si>
@@ -405,6 +570,12 @@
     <t>U4</t>
   </si>
   <si>
+    <t>SOT361-1_V</t>
+  </si>
+  <si>
+    <t>CMP-1595-00004-2</t>
+  </si>
+  <si>
     <t>NX5427001Z</t>
   </si>
   <si>
@@ -412,6 +583,42 @@
   </si>
   <si>
     <t>Y1</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>GRM21BR60J226ME39L</t>
+  </si>
+  <si>
+    <t>GRM31CR60J476ME19L</t>
+  </si>
+  <si>
+    <t>C2012X7R1A106K125AC</t>
+  </si>
+  <si>
+    <t>ECA-1JHG471</t>
+  </si>
+  <si>
+    <t>EEEFK1C101P</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>CRCW08055K10FKEA</t>
+  </si>
+  <si>
+    <t>RC0805FR-071KL</t>
+  </si>
+  <si>
+    <t>RC0805FR-0720KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100KL</t>
   </si>
 </sst>
 </file>
@@ -478,7 +685,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -787,30 +1005,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A8EF53-17CE-4271-9079-1B44325FC27D}">
-  <dimension ref="A1:O36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9E4C23-F157-4DA9-9EF9-411CC61B3FDE}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -832,148 +1042,126 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <v>7</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
         <v>3</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -984,873 +1172,994 @@
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1">
         <v>4</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1">
         <v>2</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1">
         <v>4</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1">
         <v>2</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1">
         <v>1</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1">
         <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1">
+        <v>88</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1">
         <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="1">
         <v>6</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
+        <v>102</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="1">
         <v>1</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="1">
         <v>1</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1">
+        <v>112</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1">
         <v>2</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1">
-        <v>18</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
+        <v>121</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="1">
         <v>4</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
+        <v>125</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1">
         <v>2</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1">
+        <v>121</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="1">
         <v>1</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1">
-        <v>37</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="B34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
+      <c r="F34" s="1">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1">
+        <v>155</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="1">
         <v>1</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="1">
+        <v>37</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"DNP"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ECAD/Altium/SoM BaseBoard Prototype V0/Project Outputs for SoM BaseBoard Prototype V0/BOM/Copy of Bill of Materials-SoM BaseBoard Prototype V0.xlsx
+++ b/ECAD/Altium/SoM BaseBoard Prototype V0/Project Outputs for SoM BaseBoard Prototype V0/BOM/Copy of Bill of Materials-SoM BaseBoard Prototype V0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keepi\Downloads\Limbotics\transradial_development\ECAD\Altium\SoM BaseBoard Prototype V0\Project Outputs for SoM BaseBoard Prototype V0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CAD8B2-676E-4ABE-AF93-A00C7E65DD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63D6B51-B08B-4E9B-9D3B-477DD33C4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{EA60099D-F54E-4EF5-B3BE-0767AC6458E3}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" xr2:uid="{EA60099D-F54E-4EF5-B3BE-0767AC6458E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Bill of Materials-SoM B" sheetId="1" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>

--- a/ECAD/Altium/SoM BaseBoard Prototype V0/Project Outputs for SoM BaseBoard Prototype V0/BOM/Copy of Bill of Materials-SoM BaseBoard Prototype V0.xlsx
+++ b/ECAD/Altium/SoM BaseBoard Prototype V0/Project Outputs for SoM BaseBoard Prototype V0/BOM/Copy of Bill of Materials-SoM BaseBoard Prototype V0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keepi\Downloads\Limbotics\transradial_development\ECAD\Altium\SoM BaseBoard Prototype V0\Project Outputs for SoM BaseBoard Prototype V0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63D6B51-B08B-4E9B-9D3B-477DD33C4E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C773DE48-1E34-4CD4-8816-378EEA0B2792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" xr2:uid="{EA60099D-F54E-4EF5-B3BE-0767AC6458E3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="193">
   <si>
     <t>Comment</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>Y1</t>
-  </si>
-  <si>
-    <t>sd</t>
   </si>
   <si>
     <t>GRM21BR60J226ME39L</t>
@@ -1009,7 +1006,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1151,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1179,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
@@ -1207,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1235,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1318,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1400,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1563,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1591,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1619,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1674,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1702,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1730,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1785,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1840,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1868,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1896,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1924,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1952,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2008,7 +2005,7 @@
         <v>37</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
